--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/34.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/34.xlsx
@@ -479,13 +479,13 @@
         <v>0.1026780708374228</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.811238641922194</v>
+        <v>-1.80770024693751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04069559151182886</v>
+        <v>0.04115520509524866</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07469889830896717</v>
+        <v>-0.07567164212593099</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.09486157750954376</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.845385412739691</v>
+        <v>-1.843761025006508</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01575683255394076</v>
+        <v>0.01681929546081872</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06296773379791314</v>
+        <v>-0.0628748666697564</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.07580146456250056</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.945651217776105</v>
+        <v>-1.944159834658673</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01429591452905327</v>
+        <v>-0.01509394222355272</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06105687458465411</v>
+        <v>-0.06234442222587807</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.03786657201362341</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.997648939448273</v>
+        <v>-1.99436553556124</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03557193099167467</v>
+        <v>-0.03600163821178975</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05859196064069723</v>
+        <v>-0.05947970742511081</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.02389173760113929</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.96523673770245</v>
+        <v>-1.959799288647916</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02402807475605542</v>
+        <v>-0.02341892935611206</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07164372719452253</v>
+        <v>-0.07334051980728468</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1076803144074681</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.84246796829836</v>
+        <v>-1.836008193824542</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01689484837864116</v>
+        <v>0.01754649229485964</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06685241298928324</v>
+        <v>-0.06729471236236872</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2057574842298169</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.578670233663971</v>
+        <v>-1.570775740761087</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05647198516462565</v>
+        <v>0.05647355918374695</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06372168895701617</v>
+        <v>-0.06388696096475274</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3050580224031081</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.183324637976438</v>
+        <v>-1.173311515336284</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05461149456324824</v>
+        <v>0.05347977481503304</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04976486140844297</v>
+        <v>-0.04968458643325663</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3877449534580873</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6795220417452417</v>
+        <v>-0.6690799988945328</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05050487867577474</v>
+        <v>0.04893872965008056</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01821522214109198</v>
+        <v>-0.01878973912036673</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4309778573880823</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1710446087237823</v>
+        <v>-0.1608732971619372</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04285334344681165</v>
+        <v>-0.0448067011763458</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0206425879064581</v>
+        <v>0.02000511016233132</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.4147106829536444</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4110906230980641</v>
+        <v>0.4219985756086779</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2293698872635793</v>
+        <v>-0.2297696881203896</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08281634319783526</v>
+        <v>0.08181998909405193</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.3297734160983338</v>
       </c>
       <c r="E13" t="n">
-        <v>0.985292798548555</v>
+        <v>0.997829860849715</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5203713943714078</v>
+        <v>-0.5187186742940421</v>
       </c>
       <c r="G13" t="n">
-        <v>0.174920072080745</v>
+        <v>0.1736750229557962</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1818828361170323</v>
       </c>
       <c r="E14" t="n">
-        <v>1.568652617246773</v>
+        <v>1.582611018814468</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8357639017829118</v>
+        <v>-0.8329637217661179</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2860237857768754</v>
+        <v>0.2831622190143507</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.008753567563328832</v>
       </c>
       <c r="E15" t="n">
-        <v>2.240486476734182</v>
+        <v>2.257251354395156</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.174886321467145</v>
+        <v>-1.171690275641344</v>
       </c>
       <c r="G15" t="n">
-        <v>0.406629852908298</v>
+        <v>0.4041429026966429</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2153234880296462</v>
       </c>
       <c r="E16" t="n">
-        <v>2.774806155689156</v>
+        <v>2.793651886628489</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.524592445723004</v>
+        <v>-1.521273626405742</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5291546493485861</v>
+        <v>0.5278324732866935</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4125772527236488</v>
       </c>
       <c r="E17" t="n">
-        <v>3.272928116911578</v>
+        <v>3.291832086558399</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.865887011794632</v>
+        <v>-1.862559535372202</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6558946689957175</v>
+        <v>0.653070878692104</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.591192845221494</v>
       </c>
       <c r="E18" t="n">
-        <v>3.69294724933506</v>
+        <v>3.709948229864229</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.185334979472167</v>
+        <v>-2.179886512283785</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8067219032561133</v>
+        <v>0.8047905817942773</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7512981726419294</v>
       </c>
       <c r="E19" t="n">
-        <v>4.046106771543053</v>
+        <v>4.061771409838237</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.543301556076612</v>
+        <v>-2.536852012727083</v>
       </c>
       <c r="G19" t="n">
-        <v>0.951125565482481</v>
+        <v>0.9490148058408168</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8873450611083655</v>
       </c>
       <c r="E20" t="n">
-        <v>4.35433906597176</v>
+        <v>4.370841082439477</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.872434463407511</v>
+        <v>-2.864333773999737</v>
       </c>
       <c r="G20" t="n">
-        <v>1.078736017703692</v>
+        <v>1.075155124202733</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9922017963114182</v>
       </c>
       <c r="E21" t="n">
-        <v>4.583895588641374</v>
+        <v>4.59745576337138</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.149571223085362</v>
+        <v>-3.140473392564244</v>
       </c>
       <c r="G21" t="n">
-        <v>1.192279461037838</v>
+        <v>1.187569995826906</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.061565298661088</v>
       </c>
       <c r="E22" t="n">
-        <v>4.752180268976115</v>
+        <v>4.765625540310266</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.376544780376921</v>
+        <v>-3.365187445407176</v>
       </c>
       <c r="G22" t="n">
-        <v>1.283100364336888</v>
+        <v>1.277068723064064</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.100075121355971</v>
       </c>
       <c r="E23" t="n">
-        <v>4.867516520089423</v>
+        <v>4.880302277411749</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.516470358203188</v>
+        <v>-3.505100431080473</v>
       </c>
       <c r="G23" t="n">
-        <v>1.36292359603541</v>
+        <v>1.356251328980216</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.11680942247994</v>
       </c>
       <c r="E24" t="n">
-        <v>4.937020482428698</v>
+        <v>4.949866052477633</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.634325039910578</v>
+        <v>-3.622433325449151</v>
       </c>
       <c r="G24" t="n">
-        <v>1.425890656963922</v>
+        <v>1.418846921396102</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.118745899545093</v>
       </c>
       <c r="E25" t="n">
-        <v>4.936655309992556</v>
+        <v>4.948081114794078</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.735510859123393</v>
+        <v>-3.723717520857047</v>
       </c>
       <c r="G25" t="n">
-        <v>1.465354464373173</v>
+        <v>1.458246194021379</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.109776225865488</v>
       </c>
       <c r="E26" t="n">
-        <v>4.930958934792569</v>
+        <v>4.940975992480526</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.751334473349828</v>
+        <v>-3.740140836368699</v>
       </c>
       <c r="G26" t="n">
-        <v>1.492473239814063</v>
+        <v>1.484815636788935</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.092947877035598</v>
       </c>
       <c r="E27" t="n">
-        <v>4.895729238819617</v>
+        <v>4.904076262219874</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.697639959064898</v>
+        <v>-3.688426438138364</v>
       </c>
       <c r="G27" t="n">
-        <v>1.486961024851268</v>
+        <v>1.479624521726885</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.074371197406176</v>
       </c>
       <c r="E28" t="n">
-        <v>4.745863730242336</v>
+        <v>4.753998261061218</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.625310632402889</v>
+        <v>-3.616904583285582</v>
       </c>
       <c r="G28" t="n">
-        <v>1.441736307458056</v>
+        <v>1.433861489794189</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.060812665783678</v>
       </c>
       <c r="E29" t="n">
-        <v>4.620622176798682</v>
+        <v>4.628009048534947</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.534655001111576</v>
+        <v>-3.526609402373047</v>
       </c>
       <c r="G29" t="n">
-        <v>1.39537987031663</v>
+        <v>1.387992998580366</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.055853487786037</v>
       </c>
       <c r="E30" t="n">
-        <v>4.476651369830673</v>
+        <v>4.482158862736104</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.414438503712675</v>
+        <v>-3.404483619780009</v>
       </c>
       <c r="G30" t="n">
-        <v>1.341970253492655</v>
+        <v>1.33478800424216</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.059104256099079</v>
       </c>
       <c r="E31" t="n">
-        <v>4.325323597489703</v>
+        <v>4.329867790692898</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.294828790685036</v>
+        <v>-3.284397765968176</v>
       </c>
       <c r="G31" t="n">
-        <v>1.27059006036079</v>
+        <v>1.265010162575779</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.06523208759289</v>
       </c>
       <c r="E32" t="n">
-        <v>4.184614158141028</v>
+        <v>4.190003599612361</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.158309390237263</v>
+        <v>-3.147262924043975</v>
       </c>
       <c r="G32" t="n">
-        <v>1.20287103570507</v>
+        <v>1.196789025820365</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.067060805161839</v>
       </c>
       <c r="E33" t="n">
-        <v>3.981867903164529</v>
+        <v>3.98678199086123</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.039903801837419</v>
+        <v>-3.027493448075524</v>
       </c>
       <c r="G33" t="n">
-        <v>1.131322422527226</v>
+        <v>1.125711044359789</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.058881163947383</v>
       </c>
       <c r="E34" t="n">
-        <v>3.724526794965716</v>
+        <v>3.729873737920774</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.959596559259097</v>
+        <v>-2.947727668074929</v>
       </c>
       <c r="G34" t="n">
-        <v>1.071697004193235</v>
+        <v>1.066276082339475</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.036575197384861</v>
       </c>
       <c r="E35" t="n">
-        <v>3.483804180649595</v>
+        <v>3.489085014801559</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.872350253384521</v>
+        <v>-2.859145019966369</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9795145743542601</v>
+        <v>0.9730532258613208</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.000115125987387</v>
       </c>
       <c r="E36" t="n">
-        <v>3.229041315771473</v>
+        <v>3.232982659651209</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.800489984420659</v>
+        <v>-2.789238895741602</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9066862836307986</v>
+        <v>0.9004736301590248</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9510550667342537</v>
       </c>
       <c r="E37" t="n">
-        <v>2.978052948746229</v>
+        <v>2.983039441322509</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.701407054753902</v>
+        <v>-2.69040308707689</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8492928244108117</v>
+        <v>0.8443755886758684</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8920212179455095</v>
       </c>
       <c r="E38" t="n">
-        <v>2.696909523395106</v>
+        <v>2.700093764077498</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.607887495671383</v>
+        <v>-2.598482731421611</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7842150038406347</v>
+        <v>0.7787814898339048</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8268315878025536</v>
       </c>
       <c r="E39" t="n">
-        <v>2.443514481133394</v>
+        <v>2.446110038664419</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.498749731857757</v>
+        <v>-2.487835483270658</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7146449326982657</v>
+        <v>0.7092287329018699</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7582449879788975</v>
       </c>
       <c r="E40" t="n">
-        <v>2.209294139807366</v>
+        <v>2.21153711705522</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.404403812736554</v>
+        <v>-2.392826902099388</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6582619937541537</v>
+        <v>0.6540357524134613</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6901192795718443</v>
       </c>
       <c r="E41" t="n">
-        <v>2.007564701183227</v>
+        <v>2.01006109550961</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.306911429391872</v>
+        <v>-2.296096344009415</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5930661217498793</v>
+        <v>0.588997282321317</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6247874753261287</v>
       </c>
       <c r="E42" t="n">
-        <v>1.760091118855848</v>
+        <v>1.76064989564391</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.208191311132575</v>
+        <v>-2.197699686679545</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5220794333983395</v>
+        <v>0.5183883585588894</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5633453220028071</v>
       </c>
       <c r="E43" t="n">
-        <v>1.542997679588693</v>
+        <v>1.543600528912151</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.126941231100594</v>
+        <v>-2.116307944926647</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4681472422260927</v>
+        <v>0.4646450496811987</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5069115886218585</v>
       </c>
       <c r="E44" t="n">
-        <v>1.317064548936314</v>
+        <v>1.316105971291442</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.038297196246303</v>
+        <v>-2.02768122428269</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4167020012655011</v>
+        <v>0.4146935528667214</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4554025236502512</v>
       </c>
       <c r="E45" t="n">
-        <v>1.105750907882575</v>
+        <v>1.105064635545688</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.958063145557122</v>
+        <v>-1.947995719257283</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3566264134628177</v>
+        <v>0.3549878595575437</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4100749402342665</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9078715200291381</v>
+        <v>0.9064879572215148</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.890795864389216</v>
+        <v>-1.88085435961908</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2880101979079568</v>
+        <v>0.2861449852492155</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3709196884431145</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7485980991638428</v>
+        <v>0.746673073778492</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.840409151287699</v>
+        <v>-1.831496268013333</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2481040911256205</v>
+        <v>0.2469204287464024</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3372955214898214</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5871619760258804</v>
+        <v>0.5855974010193075</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.775218788350349</v>
+        <v>-1.765753424364407</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2016972853723123</v>
+        <v>0.2012817443242889</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3084759377074387</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4608925880960179</v>
+        <v>0.4587723843396259</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.726528867861594</v>
+        <v>-1.717261830284936</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1507258241672321</v>
+        <v>0.1491439349503249</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2824219943150971</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3561038391145459</v>
+        <v>0.3559228269155963</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.665995240494612</v>
+        <v>-1.655736570871535</v>
       </c>
       <c r="G50" t="n">
-        <v>0.115003460209313</v>
+        <v>0.11444310940213</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2584721448426482</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2264629022268573</v>
+        <v>0.225770333813485</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.612285773028029</v>
+        <v>-1.603103732483922</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0783461288933413</v>
+        <v>0.07761735804017909</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2351794520959846</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1194673784373218</v>
+        <v>0.1188566590182571</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.570510518539148</v>
+        <v>-1.560317170709605</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04689565283063227</v>
+        <v>0.04661862546528334</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2118091246386438</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03059511081044234</v>
+        <v>0.02878971087831046</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.548494713089516</v>
+        <v>-1.539961168423384</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007398791019834108</v>
+        <v>0.00719731657230762</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1888016726017986</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06019431210618133</v>
+        <v>-0.06251284227185724</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.531175780697844</v>
+        <v>-1.522432104479019</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01297373846716069</v>
+        <v>-0.01339085353430538</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1656803312062487</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1324449378121255</v>
+        <v>-0.1346674528114021</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.518918106790715</v>
+        <v>-1.509802962059263</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04265659105664906</v>
+        <v>-0.04310833454446236</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1429617025784929</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1989393755914731</v>
+        <v>-0.2024541602893375</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.52415172036904</v>
+        <v>-1.515247494199842</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07451473807177499</v>
+        <v>-0.07449112778495548</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1213874794167208</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2554938826198068</v>
+        <v>-0.2583554493823314</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.521243720042437</v>
+        <v>-1.511985339570946</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1048665487878161</v>
+        <v>-0.1065633414005783</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1016859531364861</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3382243276353709</v>
+        <v>-0.3420019735264926</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.520378009525721</v>
+        <v>-1.511157405513142</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1259206285543341</v>
+        <v>-0.1271216051438866</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.08455882033679381</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4115988029939238</v>
+        <v>-0.4158329144302226</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.538483951478043</v>
+        <v>-1.53028724690387</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1498158128347999</v>
+        <v>-0.1508342032062814</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.06885345795804425</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4828310383283864</v>
+        <v>-0.4853966894961065</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.552570635604124</v>
+        <v>-1.544707623083666</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1807657508169353</v>
+        <v>-0.1826813320875582</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.05375801978853277</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5539105938080828</v>
+        <v>-0.5570114114770452</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.580599194097125</v>
+        <v>-1.573260329944061</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2033922756856327</v>
+        <v>-0.2050245335144215</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.03867326998668214</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6083149907167198</v>
+        <v>-0.6117101499613654</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.611234328255</v>
+        <v>-1.602744856124265</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2168847675934222</v>
+        <v>-0.2180290794946078</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.0233791105318296</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6600309629661752</v>
+        <v>-0.6638117568955395</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.655340705062528</v>
+        <v>-1.647313994553455</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2497361206740888</v>
+        <v>-0.2512377349158097</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.007759236424277871</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7149909886246314</v>
+        <v>-0.7193415774759064</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.695961416525934</v>
+        <v>-1.688506861967454</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2722414460704461</v>
+        <v>-0.2730363257267029</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.007543656788211368</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7888329476622106</v>
+        <v>-0.7943656248735824</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.740655689475267</v>
+        <v>-1.733163358457876</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2969236399115622</v>
+        <v>-0.2989210701764927</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.02180541783379319</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8596283926905122</v>
+        <v>-0.8674583508094225</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.779702381817374</v>
+        <v>-1.772202967713937</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3183271519230089</v>
+        <v>-0.3195659049714726</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.03436452389032505</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.912675985116588</v>
+        <v>-0.920339884218201</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.811057629723244</v>
+        <v>-1.802840462900494</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3414762511399781</v>
+        <v>-0.3429967536111546</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.04480088904097013</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9491058706695318</v>
+        <v>-0.9595793939026666</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.845206761569423</v>
+        <v>-1.836536277239738</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3651180183419145</v>
+        <v>-0.3672712764998538</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.05337834411287303</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9699553279502806</v>
+        <v>-0.9815527008360241</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.886635731851618</v>
+        <v>-1.875942632951062</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3841447614801972</v>
+        <v>-0.3860367324640006</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.06072623506083464</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9675628188859036</v>
+        <v>-0.9791216283031752</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.917155962613638</v>
+        <v>-1.907205800738336</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4056254004285877</v>
+        <v>-0.408663257332698</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06770067343265224</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9756926276474217</v>
+        <v>-0.9853484479470407</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.943435785862874</v>
+        <v>-1.933160589039024</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4149310014737173</v>
+        <v>-0.4180758916780761</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.07507801733134573</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9752463932265329</v>
+        <v>-0.9865864139859437</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.986157025843657</v>
+        <v>-1.976275333800131</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4201945214153469</v>
+        <v>-0.423194601860546</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.08351446039895771</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9372385535044853</v>
+        <v>-0.949287669878042</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.009971935148936</v>
+        <v>-1.998472151448714</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4327426018503559</v>
+        <v>-0.4356608333012474</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.0930912848531851</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8855611447235017</v>
+        <v>-0.896746911609025</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.04687323942871</v>
+        <v>-2.036203750814973</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4317698580333921</v>
+        <v>-0.4355065794273599</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1032953212631147</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8261309047605516</v>
+        <v>-0.8376637428623217</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.07314519258234</v>
+        <v>-2.061906696056253</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4388277597733044</v>
+        <v>-0.4423771728918374</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1138589556294984</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7372066945026693</v>
+        <v>-0.7481917739502267</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.102381810750939</v>
+        <v>-2.092800756359582</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4314613502856172</v>
+        <v>-0.4345117993426979</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1245658942277888</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6406075670093248</v>
+        <v>-0.6528628798877719</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.094857212341561</v>
+        <v>-2.08644486714777</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4181656107679902</v>
+        <v>-0.4205659899279738</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1350302159157429</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5296030165178364</v>
+        <v>-0.5414900089218991</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.097549572048546</v>
+        <v>-2.090457828897526</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.410175889708268</v>
+        <v>-0.4125636767152811</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1453068123224403</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3724183190265071</v>
+        <v>-0.3841400394228333</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079598670979673</v>
+        <v>-2.073271901121604</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3853677743374478</v>
+        <v>-0.3875320506292362</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.155015662472226</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2313484292990542</v>
+        <v>-0.243847715141303</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.046477373619703</v>
+        <v>-2.040170279000651</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3655335593899379</v>
+        <v>-0.3679402346264066</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1634967875413924</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.03180058117703822</v>
+        <v>-0.04358211429997387</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.013910130990431</v>
+        <v>-2.006705845472238</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3383187687826489</v>
+        <v>-0.3412448703291469</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1703150401343661</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1389254028148409</v>
+        <v>0.1279796738453159</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.970952788141453</v>
+        <v>-1.963532074994081</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3160652864456998</v>
+        <v>-0.3204552257750075</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1758940018394645</v>
       </c>
       <c r="E83" t="n">
-        <v>0.346697500845653</v>
+        <v>0.3347758800209216</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.911905034824979</v>
+        <v>-1.905273692266939</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2783423441846076</v>
+        <v>-0.2817910200793773</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1800190778064314</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5541721092625392</v>
+        <v>0.5446571636742765</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.829153340551277</v>
+        <v>-1.823593118005283</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.246544009896091</v>
+        <v>-0.2509418193210052</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1834574985762976</v>
       </c>
       <c r="E85" t="n">
-        <v>0.735518000265834</v>
+        <v>0.7271426445213931</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.713058412221502</v>
+        <v>-1.707695729075231</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2197715186618877</v>
+        <v>-0.2251168875978248</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1862315725186323</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9510909370618124</v>
+        <v>0.9418120943417448</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.620495856764734</v>
+        <v>-1.6165104403496</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.18603556683505</v>
+        <v>-0.1913242710826203</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1887259620866341</v>
       </c>
       <c r="E87" t="n">
-        <v>1.160216691536943</v>
+        <v>1.152326133681863</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.497094331673881</v>
+        <v>-1.494967044831443</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1494490663795368</v>
+        <v>-0.1536249391083475</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1916511901084187</v>
       </c>
       <c r="E88" t="n">
-        <v>1.327363356046984</v>
+        <v>1.321106630039814</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.343366180172928</v>
+        <v>-1.340153607146353</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1216786470224288</v>
+        <v>-0.1265360700307627</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1957198712581065</v>
       </c>
       <c r="E89" t="n">
-        <v>1.459291342717923</v>
+        <v>1.453881438998012</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.162180839120006</v>
+        <v>-1.158747903416449</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09408609182602774</v>
+        <v>-0.09890573837545044</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2021477949099214</v>
       </c>
       <c r="E90" t="n">
-        <v>1.573872064653006</v>
+        <v>1.568915478440031</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9761309919727039</v>
+        <v>-0.9730978571259575</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07026960850162703</v>
+        <v>-0.07437465036997923</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2109461478939007</v>
       </c>
       <c r="E91" t="n">
-        <v>1.651951283165127</v>
+        <v>1.645685113043229</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.780015292544684</v>
+        <v>-0.7777298167805554</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.07326024483209834</v>
+        <v>-0.07758564937743263</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2219490898173019</v>
       </c>
       <c r="E92" t="n">
-        <v>1.709953887785057</v>
+        <v>1.706037728211261</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5734079686636345</v>
+        <v>-0.5728665060859071</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0674772985804396</v>
+        <v>-0.07149891743536287</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2351142129889</v>
       </c>
       <c r="E93" t="n">
-        <v>1.716736336178742</v>
+        <v>1.714178555106628</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4002217927851624</v>
+        <v>-0.400240681014618</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07324450464088533</v>
+        <v>-0.07647439187779434</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2497297357592909</v>
       </c>
       <c r="E94" t="n">
-        <v>1.70286607968184</v>
+        <v>1.700693933294446</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2148102103915479</v>
+        <v>-0.215125014215808</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09435524909577016</v>
+        <v>-0.09633221711212382</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2655259723581836</v>
       </c>
       <c r="E95" t="n">
-        <v>1.669825844306618</v>
+        <v>1.668055072795154</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07505620064950243</v>
+        <v>-0.07458242089399092</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.09931813138523123</v>
+        <v>-0.1016555497803627</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2812653153872535</v>
       </c>
       <c r="E96" t="n">
-        <v>1.605886039561141</v>
+        <v>1.606043441473271</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03531087209785921</v>
+        <v>0.03381712795174485</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1137188323260112</v>
+        <v>-0.114900920686108</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2934897184549928</v>
       </c>
       <c r="E97" t="n">
-        <v>1.509669398714273</v>
+        <v>1.511783306394179</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09852033197105223</v>
+        <v>0.09684242758774569</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1365059071450813</v>
+        <v>-0.1370536657992939</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2965053765242438</v>
       </c>
       <c r="E98" t="n">
-        <v>1.379527923746011</v>
+        <v>1.380066238285495</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1462839422069216</v>
+        <v>0.1450357450437302</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1448844109277648</v>
+        <v>-0.1455155925954064</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2881746625947796</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251744329421457</v>
+        <v>1.252325142477217</v>
       </c>
       <c r="F99" t="n">
-        <v>0.159184602925102</v>
+        <v>0.1569369036198847</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1602011909971418</v>
+        <v>-0.1605600673567984</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2670987352425535</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124000085574935</v>
+        <v>1.124182671793006</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1782711587899942</v>
+        <v>0.175145156815091</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1673771441711517</v>
+        <v>-0.1677265764160804</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2399499003798089</v>
       </c>
       <c r="E101" t="n">
-        <v>1.011320778738383</v>
+        <v>1.012435184276264</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1893963259393474</v>
+        <v>0.1866591066874055</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1910173373539667</v>
+        <v>-0.191453340650567</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2035204646966769</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8958617541336138</v>
+        <v>0.8965354343175306</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1877640681105586</v>
+        <v>0.1835614370566858</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1949098866409433</v>
+        <v>-0.1942535206673609</v>
       </c>
     </row>
   </sheetData>
